--- a/Reporting/test.xlsx
+++ b/Reporting/test.xlsx
@@ -19,7 +19,7 @@
     <x:t>JobTitle</x:t>
   </x:si>
   <x:si>
-    <x:t>Column1</x:t>
+    <x:t>Salary</x:t>
   </x:si>
   <x:si>
     <x:t>a</x:t>
@@ -120,7 +120,7 @@
   <x:autoFilter ref="A1:B12"/>
   <x:tableColumns count="2">
     <x:tableColumn id="1" name="JobTitle"/>
-    <x:tableColumn id="2" name="Column1"/>
+    <x:tableColumn id="2" name="Salary"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
